--- a/biology/Médecine/Endodontie/Endodontie.xlsx
+++ b/biology/Médecine/Endodontie/Endodontie.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">L'endodontie est la partie de l'odontologie qui traite de l'intérieur de la dent. Elle consiste dans la prévention, le diagnostic et le traitement des maladies de la pulpe dentaire et des infections péri-apicales (dans l'os autour des racines).
 Le dentiste réalise le traitement endodontique (dévitalisation) d'une dent lorsque celle-ci ne peut plus être gardée vivante, soit parce qu'elle est déjà nécrosée, soit parce qu'elle risque de le devenir. 
@@ -512,7 +524,9 @@
           <t>Traitement endodontique</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Le traitement endodontique consiste à :
 éliminer ce qui reste de tissus vivants infectés ou potentiellement infectés à l'intérieur de la dent (pulpe dentaire)
@@ -552,54 +566,204 @@
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>Pulpite
-Pulpite réversible
+          <t>Pulpite</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Pulpite réversible
 Des stimuli tels que le chaud et le froid entraînent des changements vasculaires (hyperémie). Quel que soit le stimulus, la pulpe réagit au niveau vasculaire et cellulaire. Un stimulus bref et pas trop important entraîne des changements vasculaires éphémères, réversibles. Le degré de réponse pulpaire augmente proportionnellement au stimulus. Les stimuli n'entraînent pas toujours de douleur ; les réactions sont souvent asymptomatiques.
 Pulpite irréversible
 Une pulpe qui a subi une altération au-delà de son potentiel réparateur ne peut plus cicatriser, même si le stimulus disparaît. Par ailleurs dès que des bactéries atteignent le tissu pulpaire, la pathologie devient irréversible.
 Symptômes : douleurs spontanées amplifiées par la position allongée, douleurs nocturnes, pulsatiles. Les douleurs peuvent durer très longtemps et ne pas céder aux antalgiques ni aux anti-inflammatoires.
-Nécrose
-La nécrose signifie que la dent est morte. Elle accompagne tous les phénomènes inflammatoires. La vitesse de survenue de la nécrose dépend de plusieurs facteurs :
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Endodontie</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Endodontie</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>Pathologies pulpaires</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Nécrose</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>La nécrose signifie que la dent est morte. Elle accompagne tous les phénomènes inflammatoires. La vitesse de survenue de la nécrose dépend de plusieurs facteurs :
 durée et sévérité de l'agression ;
 étendue du processus carieux ;
 importance de la circulation collatérale.</t>
         </is>
       </c>
     </row>
-    <row r="5">
-      <c r="A5" s="1" t="n">
-        <v>3</v>
-      </c>
-      <c r="B5" t="inlineStr">
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
         <is>
           <t>Endodontie</t>
         </is>
       </c>
-      <c r="C5" t="inlineStr">
+      <c r="C6" t="inlineStr">
         <is>
           <t>Portail:Médecine/Articles liés</t>
         </is>
       </c>
-      <c r="D5" t="inlineStr">
+      <c r="D6" t="inlineStr">
         <is>
           <t>https://fr.wikipedia.org/wiki/Endodontie</t>
         </is>
       </c>
-      <c r="E5" t="inlineStr">
+      <c r="E6" t="inlineStr">
         <is>
           <t>Pathologies péri-apicales</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Desmodontite alvéolaire chronique
-Réaction chronique asymptomatique. Conséquences au niveau du péri-apex : résorption osseuse, contenant un granulome ou un kyste. Si c'est un granulome, la suppression de la cause (grâce à un traitement endodontique) suffit à la résorption de la pathologie. Si c'est un kyste, le traitement radiculaire ne suffira pas ; il faudra en plus de la chirurgie (exérèse du kyste).
-Abcès alvéolaire chronique
-Aussi appelé desmodontite apicale. C'est une lésion chronique. On peut observer du pus au niveau du péri-apex. La pulpe est totalement nécrosée.
-Ostéite condensante
-C'est l'ostéosclérose pulpo-périapicale qui a pour étiologie une pulpite chronique asymptomatique. Elle traduit l'hyperactivité du tissu osseux irrité. On peut la diagnostiquer radiographiquement (image périapicale radiodense). Elle disparaît lentement après un traitement canalaire adéquat.
-Abcès alvéolaire aigu
-C'est une infection aiguë, sans résorption osseuse. La nécrose pulpaire est totale. L'abcès survient brutalement. Signes : sensation de dent longue, très sensible à la pression.
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Desmodontite alvéolaire chronique</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Réaction chronique asymptomatique. Conséquences au niveau du péri-apex : résorption osseuse, contenant un granulome ou un kyste. Si c'est un granulome, la suppression de la cause (grâce à un traitement endodontique) suffit à la résorption de la pathologie. Si c'est un kyste, le traitement radiculaire ne suffira pas ; il faudra en plus de la chirurgie (exérèse du kyste).
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Endodontie</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Endodontie</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>Pathologies péri-apicales</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>Abcès alvéolaire chronique</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Aussi appelé desmodontite apicale. C'est une lésion chronique. On peut observer du pus au niveau du péri-apex. La pulpe est totalement nécrosée.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Endodontie</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Endodontie</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>Pathologies péri-apicales</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>Ostéite condensante</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t xml:space="preserve">C'est l'ostéosclérose pulpo-périapicale qui a pour étiologie une pulpite chronique asymptomatique. Elle traduit l'hyperactivité du tissu osseux irrité. On peut la diagnostiquer radiographiquement (image périapicale radiodense). Elle disparaît lentement après un traitement canalaire adéquat.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>Endodontie</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Endodontie</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>Pathologies péri-apicales</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>Abcès alvéolaire aigu</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr"/>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t xml:space="preserve">C'est une infection aiguë, sans résorption osseuse. La nécrose pulpaire est totale. L'abcès survient brutalement. Signes : sensation de dent longue, très sensible à la pression.
 </t>
         </is>
       </c>
